--- a/models/types1-24/Best_ExtremeRandomTrees/ConfusionMatrix.xlsx
+++ b/models/types1-24/Best_ExtremeRandomTrees/ConfusionMatrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\pfHRP_MLModel\models\types1-24\Best_ExtremeRandomTrees\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE5FE76C-B4CE-482D-8B7A-B44CD000CD48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3E1FF9-0FFE-41B6-AD05-07C42E9B993F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="23400" windowHeight="11385" xr2:uid="{DA2684CA-ABA8-4BF7-A6C4-55C66346F356}"/>
+    <workbookView xWindow="13965" yWindow="3780" windowWidth="14325" windowHeight="8010" xr2:uid="{DA2684CA-ABA8-4BF7-A6C4-55C66346F356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,16 +41,16 @@
     <t>True Label</t>
   </si>
   <si>
-    <t>9 (0.33)</t>
-  </si>
-  <si>
-    <t>10 (0.25)</t>
-  </si>
-  <si>
-    <t>18 (0.67)</t>
-  </si>
-  <si>
-    <t>30 (0.75)</t>
+    <t>17 (0.8095)</t>
+  </si>
+  <si>
+    <t>2 (0.1429)</t>
+  </si>
+  <si>
+    <t>4 (0.1905)</t>
+  </si>
+  <si>
+    <t>12 (0.8571)</t>
   </si>
 </sst>
 </file>
@@ -89,10 +89,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -414,23 +414,23 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>2</v>
       </c>
     </row>
@@ -438,26 +438,26 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
